--- a/Test_Mode_Easy_Medium_Hard.xlsx
+++ b/Test_Mode_Easy_Medium_Hard.xlsx
@@ -5,29 +5,33 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13380" windowHeight="12840" tabRatio="948" activeTab="2"/>
+    <workbookView windowWidth="27315" windowHeight="13110" tabRatio="948"/>
   </bookViews>
   <sheets>
-    <sheet name="MODE_EASY" sheetId="29" r:id="rId1"/>
-    <sheet name="MODE_MEDIUM" sheetId="30" r:id="rId2"/>
-    <sheet name="MODE_HARD" sheetId="31" r:id="rId3"/>
+    <sheet name="Main_menu screen" sheetId="32" r:id="rId1"/>
+    <sheet name="Leaderboard screen" sheetId="33" r:id="rId2"/>
+    <sheet name="MODE_EASY" sheetId="29" r:id="rId3"/>
+    <sheet name="MODE_MEDIUM" sheetId="30" r:id="rId4"/>
+    <sheet name="MODE_HARD" sheetId="31" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MODE_EASY!$A$3:$G$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MODE_HARD!$A$3:$G$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MODE_MEDIUM!$A$3:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MODE_EASY!$A$3:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">MODE_HARD!$A$3:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">MODE_MEDIUM!$A$3:$G$5</definedName>
     <definedName name="CLB8110F">#REF!</definedName>
     <definedName name="項目一覧">[1]項目一覧!$H:$X</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Main_menu screen'!$A$3:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Leaderboard screen'!$A$3:$G$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="93">
   <si>
     <t>Dách sách các trường hợp kiểm tra</t>
   </si>
@@ -53,7 +57,132 @@
     <t>Ghi chú</t>
   </si>
   <si>
+    <t xml:space="preserve">【Check hiển thị khởi tạo】
+・Button "Easy mode" được hiển thị và có thể click
+・Button "Leaderboard" được hiển thị  và có thể click
+・Button "Medium mode" được hiển thị  và  không thể click
+・Button "Hard mode"được hiển thị  và  không thể click
+【Check chức năng】
+・Di chuyển đến màn hình game mode Easy
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Màn hình chính
+2. Click chọn mode "Easy"
+・ Trường hợp medium và hard mode chưa được mở
+</t>
+  </si>
+  <si>
+    <t>28/4</t>
+  </si>
+  <si>
+    <t>nguyen-thanhan</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Check hiển thị khởi tạo】
+・Button "Easy mode" được hiển thị và có thể click
+・Button "Leaderboard" được hiển thị  và có thể click
+・Button "Medium mode" được hiển thị  và có thể click
+・Button "Hard mode"được hiển thị  và  không thể click
+【Check chức năng】
+・Di chuyển đến màn hình game mode Medium
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Màn hình chính
+2. Click chọn mode "Medium"
+・ Trường hợp hard mode chưa được mở
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Check hiển thị khởi tạo】
+・Button "Easy mode" được hiển thị và có thể click
+・Button "Leaderboard" được hiển thị  và có thể click
+・Button "Medium mode" được hiển thị  và có thể click
+・Button "Hard mode"được hiển thị  và  có thể click
+【Check chức năng】
+・Di chuyển đến màn hình game mode Hard
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Màn hình chính
+2. Click chọn mode "Hard"
+・ Trường hợp easy, medium, hard mode đều đã mở
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Check hiển thị khởi tạo】
+・Button "Easy mode" được hiển thị
+・Button "Leaderboard" được hiển thị
+・Button "Medium mode" được hiển thị  
+・Button "Hard mode"được hiển thị 
+【Check chức năng】
+・Di chuyển đến màn hình Leaderboard
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Màn hình chính
+2. Click chọn "Leaderboard" (biểu tượng cúp vàng)
+</t>
+  </si>
+  <si>
+    <t>【Check hiển thị】
+・Phải hiển thị alert "Do you ...."</t>
+  </si>
+  <si>
+    <t>1. Từ màn hình chính chọn "Back Key"</t>
+  </si>
+  <si>
+    <t>【Check hiển thị】
+・Phải trở về màn hình chính</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Từ màn hình chính chọn "Back Key"
+2. Click "NO, I CAN STAY" trên alert </t>
+  </si>
+  <si>
+    <t>【Check hiển thị】
+・Phải trở về màn hình điện thoại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Từ màn hình chính chọn "Back Key"
+2. Click "YES, PLEASE" trên alert </t>
+  </si>
+  <si>
+    <t>1. Từ màn hình chính chọn "Home Key"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Check hiển thị khởi tạo】
+・Hiển thị điểm tốt nhất Easy mode
+・Hiển thị điểm tốt nhất Medium mode
+・Hiển thị điểm tốt nhất Hard mode
+</t>
+  </si>
+  <si>
+    <t>【Check hiển thị】
+・Phải hiển thị Màn hình chính</t>
+  </si>
+  <si>
+    <t>1. Từ màn hình Leaderboard chọn "Back Key"</t>
+  </si>
+  <si>
+    <t>【Check hiển thị】
+・Phải trở về màn hình Home của điện thoại</t>
+  </si>
+  <si>
+    <t>1. Từ màn hình Leaderboard chọn "Home Key"</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="IPAexゴシック"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">【Check hiển thị khởi tạo】
 ・Số card hiển thị phải là 12 card
 ・Tất cả các card phải đang trong trạng thái lật úp (hiển thị hình mặc định)
@@ -73,6 +202,12 @@
     <t>1. Từ màn hình chính chọn mode "Easy"</t>
   </si>
   <si>
+    <t>27/4</t>
+  </si>
+  <si>
+    <t>ho-nguyenmainguyen</t>
+  </si>
+  <si>
     <t>【Check hiển thị】
 ・Card được chọn phải được lật và hiển thị hình ảnh
 【Check chức năng】
@@ -154,6 +289,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="IPAexゴシック"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Màn hình Alert thất bại
 ・Click </t>
     </r>
@@ -200,6 +341,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="IPAexゴシック"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Màn hình Alert chiến thắng
 ・Click </t>
     </r>
@@ -249,18 +396,10 @@
 2. Click Resume trên alert </t>
   </si>
   <si>
-    <t>【Check hiển thị】
-・Phải trở về màn hình chính</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Từ màn hình mode Easy chọn "Back Key"
 2. Click Quit trên alert </t>
   </si>
   <si>
-    <t>【Check hiển thị】
-・Phải trở về màn hình Home của điện thoại</t>
-  </si>
-  <si>
     <t>1. Từ màn hình mode Easy chọn "Home Key"</t>
   </si>
   <si>
@@ -269,6 +408,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="IPAexゴシック"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>【Check hiển thị khởi tạo】
 ・Số card hiển thị phải là 16 card
 ・Tất cả các card phải đang trong trạng thái lật úp (hiển thị hình mặc định)
@@ -360,6 +505,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="IPAexゴシック"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>【Check hiển thị khởi tạo】
 ・Số card hiển thị phải là 20 card
 ・Tất cả các card phải đang trong trạng thái lật úp (hiển thị hình mặc định)
@@ -434,10 +585,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -474,14 +625,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="IPAexゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="IPAexゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,8 +654,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="IPAexゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="IPAexゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="IPAexゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="IPAexゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="IPAexゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,22 +700,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="IPAexゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="IPAexゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="IPAexゴシック"/>
@@ -542,7 +708,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="IPAexゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="IPAexゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="IPAexゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,21 +738,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="IPAexゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="IPAexゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="IPAexゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,14 +747,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="IPAexゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="IPAexゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,14 +767,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="IPAexゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="IPAexゴシック (Body)"/>
@@ -648,7 +799,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,13 +835,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,13 +931,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,139 +979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,15 +1047,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -929,15 +1071,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -949,6 +1082,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,12 +1135,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1016,133 +1167,133 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1468,10 +1619,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:G21"/>
+  <dimension ref="A3:G12"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1519,7 +1670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="151" customHeight="1" spans="1:7">
+    <row r="5" ht="173" customHeight="1" spans="1:7">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1529,257 +1680,170 @@
       <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" ht="134" customHeight="1" spans="1:7">
+    <row r="6" ht="175" customHeight="1" spans="1:7">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" ht="89.25" spans="1:7">
+    <row r="7" ht="167" customHeight="1" spans="1:7">
       <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" ht="63.75" spans="1:7">
+    <row r="8" ht="102" spans="1:7">
       <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>14</v>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" ht="139" customHeight="1" spans="1:7">
+    <row r="9" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A9" s="6">
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" ht="156" customHeight="1" spans="1:7">
+    <row r="10" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A10" s="6">
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" ht="92" customHeight="1" spans="1:7">
+    <row r="11" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A11" s="6">
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" ht="45" customHeight="1" spans="1:7">
+    <row r="12" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A12" s="6">
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G12" s="8"/>
-    </row>
-    <row r="13" ht="92" customHeight="1" spans="1:7">
-      <c r="A13" s="6">
-        <v>9</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" ht="92" customHeight="1" spans="1:7">
-      <c r="A14" s="6">
-        <v>10</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" ht="44" customHeight="1" spans="1:7">
-      <c r="A15" s="6">
-        <v>11</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" customFormat="1" ht="44" customHeight="1" spans="1:7">
-      <c r="A16" s="6">
-        <v>12</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A17" s="6">
-        <v>13</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A18" s="6">
-        <v>14</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A19" s="6">
-        <v>15</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A20" s="6">
-        <v>16</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A21" s="6">
-        <v>17</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:G3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11 F15 F16 F17 F18 F19 F20 F21 F5:F10 F12:F14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5 F6 F7 F8 F9 F10 F11 F12">
       <formula1>"NG,OK"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1789,6 +1853,137 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:G7"/>
+  <sheetViews>
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="4.83333333333333" style="1" customWidth="1"/>
+    <col min="2" max="3" width="31.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.8333333333333" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" ht="14" customHeight="1" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="63.75" spans="1:7">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:G3"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5 F6 F7">
+      <formula1>"NG,OK"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A3:G21"/>
@@ -1847,44 +2042,62 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" ht="134" customHeight="1" spans="1:7">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" ht="76.5" spans="1:7">
+    <row r="7" ht="89.25" spans="1:7">
       <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G7" s="8"/>
     </row>
     <row r="8" ht="63.75" spans="1:7">
@@ -1892,14 +2105,20 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G8" s="8"/>
     </row>
     <row r="9" ht="139" customHeight="1" spans="1:7">
@@ -1907,14 +2126,20 @@
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G9" s="8"/>
     </row>
     <row r="10" ht="156" customHeight="1" spans="1:7">
@@ -1922,89 +2147,125 @@
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="92" customHeight="1" spans="1:7">
+    <row r="11" ht="92" customHeight="1" spans="1:7">
       <c r="A11" s="6">
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+    <row r="12" ht="45" customHeight="1" spans="1:7">
       <c r="A12" s="6">
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="92" customHeight="1" spans="1:7">
+    <row r="13" ht="92" customHeight="1" spans="1:7">
       <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="92" customHeight="1" spans="1:7">
+    <row r="14" ht="92" customHeight="1" spans="1:7">
       <c r="A14" s="6">
         <v>10</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
+    <row r="15" ht="44" customHeight="1" spans="1:7">
       <c r="A15" s="6">
         <v>11</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G15" s="8"/>
     </row>
     <row r="16" customFormat="1" ht="44" customHeight="1" spans="1:7">
@@ -2012,14 +2273,20 @@
         <v>12</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G16" s="8"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
@@ -2027,14 +2294,20 @@
         <v>13</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G17" s="8"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
@@ -2042,14 +2315,20 @@
         <v>14</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G18" s="8"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
@@ -2057,14 +2336,20 @@
         <v>15</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G19" s="8"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
@@ -2072,14 +2357,20 @@
         <v>16</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G20" s="8"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
@@ -2087,14 +2378,20 @@
         <v>17</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G21" s="8"/>
     </row>
   </sheetData>
@@ -2102,7 +2399,7 @@
     <mergeCell ref="A3:G3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5 F11 F15 F16 F17 F18 F19 F20 F21 F5:F10 F12:F14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21">
       <formula1>"NG,OK"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2111,12 +2408,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:G20"/>
+  <dimension ref="A3:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2165,34 +2462,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="85" customHeight="1" spans="1:7">
+    <row r="5" ht="151" customHeight="1" spans="1:7">
       <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" ht="85" customHeight="1" spans="1:7">
+    <row r="6" ht="134" customHeight="1" spans="1:7">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G6" s="8"/>
     </row>
     <row r="7" ht="76.5" spans="1:7">
@@ -2200,14 +2509,20 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G7" s="8"/>
     </row>
     <row r="8" ht="63.75" spans="1:7">
@@ -2215,44 +2530,62 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" ht="119" customHeight="1" spans="1:7">
+    <row r="9" ht="139" customHeight="1" spans="1:7">
       <c r="A9" s="6">
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="156" customHeight="1" spans="1:7">
+    <row r="10" ht="156" customHeight="1" spans="1:7">
       <c r="A10" s="6">
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G10" s="8"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="92" customHeight="1" spans="1:7">
@@ -2260,14 +2593,20 @@
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G11" s="8"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
@@ -2275,14 +2614,20 @@
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G12" s="8"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="92" customHeight="1" spans="1:7">
@@ -2290,14 +2635,20 @@
         <v>9</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G13" s="8"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="92" customHeight="1" spans="1:7">
@@ -2305,14 +2656,20 @@
         <v>10</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G14" s="8"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
@@ -2320,29 +2677,41 @@
         <v>11</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+    <row r="16" customFormat="1" ht="44" customHeight="1" spans="1:7">
       <c r="A16" s="6">
         <v>12</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G16" s="8"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
@@ -2350,14 +2719,20 @@
         <v>13</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G17" s="8"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
@@ -2365,14 +2740,20 @@
         <v>14</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G18" s="8"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
@@ -2380,14 +2761,20 @@
         <v>15</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G19" s="8"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
@@ -2395,22 +2782,453 @@
         <v>16</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G20" s="8"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A21" s="6">
+        <v>17</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:G3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5 F10 F11 F15 F16 F17 F18 F19 F20 F5:F9 F12:F14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5 G5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21">
+      <formula1>"NG,OK"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:G20"/>
+  <sheetViews>
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="4.83333333333333" style="1" customWidth="1"/>
+    <col min="2" max="3" width="31.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.8333333333333" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" ht="14" customHeight="1" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="85" customHeight="1" spans="1:7">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" ht="85" customHeight="1" spans="1:7">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" ht="76.5" spans="1:7">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" ht="63.75" spans="1:7">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" ht="119" customHeight="1" spans="1:7">
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="156" customHeight="1" spans="1:7">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="92" customHeight="1" spans="1:7">
+      <c r="A11" s="6">
+        <v>7</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A12" s="6">
+        <v>8</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="92" customHeight="1" spans="1:7">
+      <c r="A13" s="6">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="92" customHeight="1" spans="1:7">
+      <c r="A14" s="6">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
+      <c r="A15" s="6">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A16" s="6">
+        <v>12</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A17" s="6">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A18" s="6">
+        <v>14</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A19" s="6">
+        <v>15</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A20" s="6">
+        <v>16</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:G3"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5 G5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20">
       <formula1>"NG,OK"</formula1>
     </dataValidation>
   </dataValidations>
